--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -403,103 +403,103 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +819,7 @@
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -829,288 +829,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="8"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12">
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="5">
         <v>42626</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="6">
         <v>42626</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18">
+      <c r="F4" s="14"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="8">
         <v>42626</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="9">
         <v>42628</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18">
+      <c r="F5" s="14"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="8">
         <v>42628</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="9">
         <v>42638</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="10">
         <v>10</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18">
+      <c r="F6" s="14"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="8">
         <v>42633</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="9">
         <v>42648</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="10">
         <v>15</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="8">
+        <v>42638</v>
+      </c>
+      <c r="I7" s="9">
+        <v>42666</v>
+      </c>
+      <c r="J7" s="10">
+        <v>28</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="8">
+        <v>42638</v>
+      </c>
+      <c r="I8" s="9">
+        <v>42666</v>
+      </c>
+      <c r="J8" s="10">
+        <v>28</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="8">
+        <v>42666</v>
+      </c>
+      <c r="I9" s="9">
+        <v>42666</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="8">
+        <v>42666</v>
+      </c>
+      <c r="I10" s="9">
+        <v>42671</v>
+      </c>
+      <c r="J10" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18">
-        <v>42638</v>
-      </c>
-      <c r="I7" s="19">
-        <v>42666</v>
-      </c>
-      <c r="J7" s="20">
-        <v>28</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="K10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18">
-        <v>42638</v>
-      </c>
-      <c r="I8" s="19">
-        <v>42666</v>
-      </c>
-      <c r="J8" s="20">
-        <v>28</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="11">
+        <v>42671</v>
+      </c>
+      <c r="I11" s="12">
+        <v>42671</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18">
-        <v>42666</v>
-      </c>
-      <c r="I9" s="19">
-        <v>42666</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18">
-        <v>42666</v>
-      </c>
-      <c r="I10" s="19">
-        <v>42671</v>
-      </c>
-      <c r="J10" s="20">
-        <v>5</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25">
-        <v>42671</v>
-      </c>
-      <c r="I11" s="26">
-        <v>42671</v>
-      </c>
-      <c r="J11" s="27">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1220,6 +1220,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K10:M10"/>
@@ -1236,21 +1251,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\LocalGitHub\Egg-Shoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\Learning\Git\Local GitHub\Egg-Shoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -439,6 +439,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,15 +475,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,25 +499,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -595,23 +595,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -647,23 +630,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -819,7 +785,7 @@
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -829,33 +795,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
@@ -865,24 +831,24 @@
       <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="5">
         <v>42626</v>
       </c>
@@ -892,24 +858,24 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="19"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="8">
         <v>42626</v>
       </c>
@@ -919,24 +885,24 @@
       <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="8">
         <v>42628</v>
       </c>
@@ -946,24 +912,24 @@
       <c r="J5" s="10">
         <v>10</v>
       </c>
-      <c r="K5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
+      <c r="K5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="19"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="8">
         <v>42633</v>
       </c>
@@ -973,24 +939,24 @@
       <c r="J6" s="10">
         <v>15</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="8">
         <v>42638</v>
       </c>
@@ -1000,24 +966,24 @@
       <c r="J7" s="10">
         <v>28</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="K7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="8">
         <v>42638</v>
       </c>
@@ -1027,24 +993,24 @@
       <c r="J8" s="10">
         <v>28</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="K8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="8">
         <v>42666</v>
       </c>
@@ -1058,20 +1024,20 @@
         <v>20</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="8">
         <v>42666</v>
       </c>
@@ -1085,18 +1051,18 @@
         <v>20</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="11">
         <v>42671</v>
       </c>
@@ -1106,11 +1072,11 @@
       <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1220,21 +1186,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K10:M10"/>
@@ -1251,6 +1202,21 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -439,18 +439,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,48 +500,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -795,33 +795,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
@@ -831,24 +831,24 @@
       <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="28"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="5">
         <v>42626</v>
       </c>
@@ -858,24 +858,24 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="8">
         <v>42626</v>
       </c>
@@ -885,24 +885,24 @@
       <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="8">
         <v>42628</v>
       </c>
@@ -912,24 +912,24 @@
       <c r="J5" s="10">
         <v>10</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="8">
         <v>42633</v>
       </c>
@@ -939,24 +939,24 @@
       <c r="J6" s="10">
         <v>15</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="8">
         <v>42638</v>
       </c>
@@ -966,24 +966,24 @@
       <c r="J7" s="10">
         <v>28</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="8">
         <v>42638</v>
       </c>
@@ -993,24 +993,24 @@
       <c r="J8" s="10">
         <v>28</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="8">
         <v>42666</v>
       </c>
@@ -1024,20 +1024,20 @@
         <v>20</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="23"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="8">
         <v>42666</v>
       </c>
@@ -1051,18 +1051,18 @@
         <v>20</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="23"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="11">
         <v>42671</v>
       </c>
@@ -1072,11 +1072,11 @@
       <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1186,6 +1186,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K10:M10"/>
@@ -1202,21 +1217,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\Learning\Git\Local GitHub\Egg-Shoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\Other\Git\Local GitHub\Egg-Shoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -439,6 +439,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,15 +481,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,25 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,7 +785,7 @@
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="K6" sqref="K6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -795,33 +795,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
@@ -831,24 +831,24 @@
       <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="5">
         <v>42626</v>
       </c>
@@ -858,24 +858,24 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="8">
         <v>42626</v>
       </c>
@@ -885,24 +885,24 @@
       <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="8">
         <v>42628</v>
       </c>
@@ -912,24 +912,24 @@
       <c r="J5" s="10">
         <v>10</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="8">
         <v>42633</v>
       </c>
@@ -939,24 +939,24 @@
       <c r="J6" s="10">
         <v>15</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="8">
         <v>42638</v>
       </c>
@@ -966,24 +966,24 @@
       <c r="J7" s="10">
         <v>28</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="8">
         <v>42638</v>
       </c>
@@ -993,24 +993,24 @@
       <c r="J8" s="10">
         <v>28</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="8">
         <v>42666</v>
       </c>
@@ -1024,20 +1024,20 @@
         <v>20</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="8">
         <v>42666</v>
       </c>
@@ -1051,18 +1051,18 @@
         <v>20</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="11">
         <v>42671</v>
       </c>
@@ -1072,11 +1072,11 @@
       <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1186,21 +1186,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K10:M10"/>
@@ -1217,6 +1202,21 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\Other\Git\Local GitHub\Egg-Shoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Egg-Shoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,17 +89,17 @@
     <t>Not Started</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Bảng kế hoạch nhóm 7</t>
+  </si>
+  <si>
+    <t>In grogess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -397,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,18 +445,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,46 +508,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,7 +797,7 @@
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:M6"/>
+      <selection activeCell="K10" sqref="K10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -795,33 +807,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
@@ -831,24 +843,24 @@
       <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="30"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="5">
         <v>42626</v>
       </c>
@@ -858,24 +870,24 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="8">
         <v>42626</v>
       </c>
@@ -885,24 +897,24 @@
       <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="8">
         <v>42628</v>
       </c>
@@ -912,24 +924,24 @@
       <c r="J5" s="10">
         <v>10</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="8">
         <v>42633</v>
       </c>
@@ -939,24 +951,24 @@
       <c r="J6" s="10">
         <v>15</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="8">
         <v>42638</v>
       </c>
@@ -966,24 +978,24 @@
       <c r="J7" s="10">
         <v>28</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="8">
         <v>42638</v>
       </c>
@@ -993,24 +1005,24 @@
       <c r="J8" s="10">
         <v>28</v>
       </c>
-      <c r="K8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="K8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="8">
         <v>42666</v>
       </c>
@@ -1020,24 +1032,24 @@
       <c r="J9" s="10">
         <v>0</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="23"/>
+      <c r="K9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="8">
         <v>42666</v>
       </c>
@@ -1051,18 +1063,18 @@
         <v>20</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="23"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="29"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="11">
         <v>42671</v>
       </c>
@@ -1072,11 +1084,11 @@
       <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1186,6 +1198,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K10:M10"/>
@@ -1202,21 +1229,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Egg-Shoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dat Nguyen\Documents\GitHub\Egg-Shoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Tasks</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Bảng kế hoạch nhóm 7</t>
-  </si>
-  <si>
-    <t>In grogess</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,15 +442,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,15 +490,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,31 +508,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:M10"/>
+      <selection activeCell="K11" sqref="K11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -807,33 +807,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
@@ -843,24 +843,24 @@
       <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="5">
         <v>42626</v>
       </c>
@@ -870,24 +870,24 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="8">
         <v>42626</v>
       </c>
@@ -897,24 +897,24 @@
       <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="8">
         <v>42628</v>
       </c>
@@ -924,24 +924,24 @@
       <c r="J5" s="10">
         <v>10</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="8">
         <v>42633</v>
       </c>
@@ -951,24 +951,24 @@
       <c r="J6" s="10">
         <v>15</v>
       </c>
-      <c r="K6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="K6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="8">
         <v>42638</v>
       </c>
@@ -978,24 +978,24 @@
       <c r="J7" s="10">
         <v>28</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="8">
         <v>42638</v>
       </c>
@@ -1005,24 +1005,24 @@
       <c r="J8" s="10">
         <v>28</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="8">
         <v>42666</v>
       </c>
@@ -1032,24 +1032,24 @@
       <c r="J9" s="10">
         <v>0</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="K9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="8">
         <v>42666</v>
       </c>
@@ -1059,22 +1059,22 @@
       <c r="J10" s="10">
         <v>5</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>20</v>
+      <c r="K10" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="11">
         <v>42671</v>
       </c>
@@ -1084,11 +1084,11 @@
       <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
+      <c r="K11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1198,21 +1198,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K10:M10"/>
@@ -1229,6 +1214,21 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
